--- a/tests/exel/textfile1.method_1.save.xlsx
+++ b/tests/exel/textfile1.method_1.save.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Frequency Histogram Data" sheetId="2" r:id="rId4"/>
     <sheet name="Frequency Histogram CryptData" sheetId="3" r:id="rId5"/>
+    <sheet name="NIST" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -25,6 +26,24 @@
   </si>
   <si>
     <t>CryptData</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>BlockFrequency (block - 16)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Rank (m - 2, q - 2)</t>
+  </si>
+  <si>
+    <t>Rans</t>
+  </si>
+  <si>
+    <t>Runsblock</t>
   </si>
 </sst>
 </file>
@@ -16113,10 +16132,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16168,10 +16187,10 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16179,10 +16198,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -16190,10 +16209,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -16201,10 +16220,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -16256,10 +16275,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -16267,10 +16286,10 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -16300,10 +16319,10 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -16311,10 +16330,10 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -16322,10 +16341,10 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -16344,10 +16363,10 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -16355,10 +16374,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -16366,10 +16385,10 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -16410,10 +16429,10 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -16454,10 +16473,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -16487,10 +16506,10 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -16509,10 +16528,10 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -16520,10 +16539,10 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -16553,10 +16572,10 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -16575,10 +16594,10 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -16663,10 +16682,10 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -16674,10 +16693,10 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -16696,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -16718,10 +16737,10 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -16740,10 +16759,10 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -16762,10 +16781,10 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -16784,10 +16803,10 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -16795,10 +16814,10 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -16817,10 +16836,10 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -16828,10 +16847,10 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -16872,10 +16891,10 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -16883,10 +16902,10 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -16894,10 +16913,10 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -16916,10 +16935,10 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -16927,10 +16946,10 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -16949,10 +16968,10 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -16960,10 +16979,10 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -16971,10 +16990,10 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -16993,10 +17012,10 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -17004,10 +17023,10 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -17026,10 +17045,10 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -17070,10 +17089,10 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -17092,10 +17111,10 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -17114,10 +17133,10 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -17136,10 +17155,10 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -17147,10 +17166,10 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -17158,10 +17177,10 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -17169,10 +17188,10 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -17180,10 +17199,10 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -17191,10 +17210,10 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -17202,10 +17221,10 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -17246,10 +17265,10 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -17268,10 +17287,10 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -17279,10 +17298,10 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -17301,10 +17320,10 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -17323,10 +17342,10 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -17356,10 +17375,10 @@
         <v>1</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -17378,10 +17397,10 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -17389,10 +17408,10 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -17422,10 +17441,10 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -17433,10 +17452,10 @@
         <v>1</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -17444,10 +17463,10 @@
         <v>1</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -17455,10 +17474,10 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -17466,10 +17485,10 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -17477,10 +17496,10 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -19570,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -19618,7 +19637,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -19642,7 +19661,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -19674,7 +19693,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -19690,7 +19709,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -19698,7 +19717,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -19706,7 +19725,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -19730,7 +19749,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -19802,7 +19821,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -19818,7 +19837,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -19834,7 +19853,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -19882,7 +19901,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -19906,7 +19925,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -19930,7 +19949,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -19946,7 +19965,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -19970,7 +19989,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -19986,7 +20005,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -19994,7 +20013,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -20018,7 +20037,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -20042,7 +20061,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -20050,7 +20069,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -20058,7 +20077,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -20066,7 +20085,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -20074,7 +20093,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -20082,7 +20101,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -20122,7 +20141,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -20130,7 +20149,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -20218,7 +20237,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -20226,7 +20245,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -20234,7 +20253,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -20242,7 +20261,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -20274,7 +20293,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -20298,7 +20317,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -20330,7 +20349,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -20346,7 +20365,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -20378,7 +20397,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -20402,7 +20421,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -20418,7 +20437,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -20426,7 +20445,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -20442,7 +20461,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -20466,7 +20485,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -20490,7 +20509,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -20506,7 +20525,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -20530,7 +20549,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -20554,7 +20573,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -20562,7 +20581,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -20610,7 +20629,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -20634,7 +20653,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -20666,7 +20685,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -20706,7 +20725,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -20714,7 +20733,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -20722,7 +20741,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -20738,7 +20757,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -20754,7 +20773,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -20762,7 +20781,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -20786,7 +20805,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -20802,7 +20821,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -20842,7 +20861,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -20866,7 +20885,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -20874,7 +20893,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -20890,7 +20909,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -20922,7 +20941,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -20938,7 +20957,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -20962,7 +20981,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -21018,7 +21037,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -21026,7 +21045,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -21034,7 +21053,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -21066,7 +21085,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -21090,7 +21109,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -21146,7 +21165,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -21162,7 +21181,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -21170,7 +21189,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -21218,7 +21237,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -21306,7 +21325,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -21330,7 +21349,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -21338,7 +21357,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -21346,7 +21365,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -21370,7 +21389,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -21378,7 +21397,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -21402,7 +21421,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -21410,7 +21429,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -21426,7 +21445,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -21442,7 +21461,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -21450,7 +21469,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -21466,7 +21485,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -21490,7 +21509,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -21498,7 +21517,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -21506,7 +21525,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -21562,7 +21581,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -21570,7 +21589,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -21586,7 +21605,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -21594,7 +21613,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -21602,7 +21621,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -21610,10 +21629,69 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>0.4220007050375921</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.6564922219671192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.6595200032020337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.9408277207546865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.8440102471601652</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.3709277792746837</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>